--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="mall" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>持续回合数（</t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="10.5"/>
-        <color rgb="FF6D6D6D"/>
+        <color theme="0"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -59,7 +52,7 @@
       <rPr>
         <i/>
         <sz val="10.5"/>
-        <color rgb="FF6D6D6D"/>
+        <color theme="0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -125,8 +118,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -280,19 +288,19 @@
     <font>
       <i/>
       <sz val="10.5"/>
-      <color rgb="FF6D6D6D"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="10.5"/>
-      <color rgb="FF6D6D6D"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +309,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -486,12 +506,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,58 +647,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,75 +704,90 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1297,26 +1341,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1340,26 +1384,26 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1379,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:7">
+    <row r="5" customFormat="1" spans="1:7">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1399,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:7">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1419,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1439,7 +1483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1460,7 +1504,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9">
